--- a/summer_2019_edited_csv/Copy of Cable_1923_table8.xlsx
+++ b/summer_2019_edited_csv/Copy of Cable_1923_table8.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pacif\Desktop\summer_2019_edited_csv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pacif\Desktop\Summer2019\id test\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE51FE85-61B1-42A0-A53A-649867E3D1FE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C404C8E3-255A-427A-951C-35EB431ECD94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8976" xr2:uid="{C46F67F0-F836-4D1F-87BD-CB3E9556D2B9}"/>
+    <workbookView xWindow="1464" yWindow="1464" windowWidth="17280" windowHeight="8964" xr2:uid="{C46F67F0-F836-4D1F-87BD-CB3E9556D2B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -105,7 +105,7 @@
     <t>prey stage</t>
   </si>
   <si>
-    <t>Ameiurus_6_6_in_1_1926_Jul_22_1926_Jul_22_lake_percVolume_percent_Cable_1923_BureauOfFisheries_Sand Lake_NA_total length_NA_Cable, L. E. (1927). Food of Bullheads in Certain Lakes of Eastern South Dakota (Doctoral dissertation, University of South Dakota)._tbl8</t>
+    <t>Ameiurus_na_6_6_in_1_1926_Jul_22_1926_Jul_22_lake_percVolume_percent_Cable_1923_BureauOfFisheries_Sand Lake_NA_total length_NA_Cable, L. E. (1927). Food of Bullheads in Certain Lakes of Eastern South Dakota (Doctoral dissertation, University of South Dakota)._tbl8</t>
   </si>
 </sst>
 </file>
